--- a/examples/app/tables/part_table.xlsx
+++ b/examples/app/tables/part_table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal\go\src\github.com\nekohor\gomonitor\app\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal\go\src\github.com\nekohor\gomon\examples\app\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="47532" yWindow="0" windowWidth="17196" windowHeight="6204"/>
+    <workbookView xWindow="50511" yWindow="0" windowWidth="17197" windowHeight="6217"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="405">
   <si>
     <t>LINE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1104,138 +1104,391 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CLG_POND</t>
+  </si>
+  <si>
+    <t>FLT_POND</t>
+  </si>
+  <si>
+    <t>MFG_POND</t>
+  </si>
+  <si>
+    <t>F1_POND</t>
+  </si>
+  <si>
+    <t>F2_POND</t>
+  </si>
+  <si>
+    <t>F3_POND</t>
+  </si>
+  <si>
+    <t>F4_POND</t>
+  </si>
+  <si>
+    <t>F5_POND</t>
+  </si>
+  <si>
+    <t>F6_POND</t>
+  </si>
+  <si>
+    <t>F7_POND</t>
+  </si>
+  <si>
+    <t>R2DT_POND</t>
+  </si>
+  <si>
+    <t>R2DW_POND</t>
+  </si>
+  <si>
+    <t>CT_POND</t>
+  </si>
+  <si>
+    <t>FET_POND</t>
+  </si>
+  <si>
+    <t>FDT_POND</t>
+  </si>
+  <si>
+    <t>FM_POND</t>
+  </si>
+  <si>
+    <t>flt_ro5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flt_ro4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width_mfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width_flt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sym_flt_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_CF_F7XFLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTSYM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_CF_F7XFLTASYM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_gap1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asym_flt_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sym_flt_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFG_POND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>looper_angle1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>looper_angle6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff_rolling_force1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_rolling_force1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_gap1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thick_clg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_center_ofs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm_center_ofs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2DW\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2dw_calc_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLT_POND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLT\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flt_calc_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mfg_calc_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLT\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFG\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flt_calc_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2dt_calc_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2DT\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2dw_calc_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_calc_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2DW\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fet_calc_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FET\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDT\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdt_calc_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLG_POND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLG\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clg_calc_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1\\Calc_Length</t>
+  </si>
+  <si>
+    <t>F1\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2\\Calc_Length</t>
+  </si>
+  <si>
+    <t>F3\\Calc_Length</t>
+  </si>
+  <si>
+    <t>F4\\Calc_Length</t>
+  </si>
+  <si>
+    <t>F5\\Calc_Length</t>
+  </si>
+  <si>
+    <t>F6\\Calc_Length</t>
+  </si>
+  <si>
+    <t>F7\\Calc_Length</t>
+  </si>
+  <si>
+    <t>calc_length1</t>
+  </si>
+  <si>
+    <t>calc_length1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calc_length2</t>
+  </si>
+  <si>
+    <t>calc_length3</t>
+  </si>
+  <si>
+    <t>calc_length4</t>
+  </si>
+  <si>
+    <t>calc_length5</t>
+  </si>
+  <si>
+    <t>calc_length6</t>
+  </si>
+  <si>
+    <t>calc_length7</t>
+  </si>
+  <si>
+    <t>pos_shift1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_shift2</t>
+  </si>
+  <si>
+    <t>pos_shift3</t>
+  </si>
+  <si>
+    <t>pos_shift4</t>
+  </si>
+  <si>
+    <t>pos_shift5</t>
+  </si>
+  <si>
+    <t>pos_shift6</t>
+  </si>
+  <si>
+    <t>pos_shift7</t>
+  </si>
+  <si>
+    <t>F7_POND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_POND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM\\Calc_Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calc_length7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm_calc_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_FDT1TEMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DCAFILE</t>
-  </si>
-  <si>
-    <t>CLG_POND</t>
-  </si>
-  <si>
-    <t>FLT_POND</t>
-  </si>
-  <si>
-    <t>MFG_POND</t>
-  </si>
-  <si>
-    <t>F1_POND</t>
-  </si>
-  <si>
-    <t>F2_POND</t>
-  </si>
-  <si>
-    <t>F3_POND</t>
-  </si>
-  <si>
-    <t>F4_POND</t>
-  </si>
-  <si>
-    <t>F5_POND</t>
-  </si>
-  <si>
-    <t>F6_POND</t>
-  </si>
-  <si>
-    <t>F7_POND</t>
-  </si>
-  <si>
-    <t>R2DT_POND</t>
-  </si>
-  <si>
-    <t>R2DW_POND</t>
-  </si>
-  <si>
-    <t>CT_POND</t>
-  </si>
-  <si>
-    <t>FET_POND</t>
-  </si>
-  <si>
-    <t>FDT_POND</t>
-  </si>
-  <si>
-    <t>FM_POND</t>
-  </si>
-  <si>
-    <t>flt_ro5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flt_ro4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width_mfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width_flt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wedge25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crown25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crown40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wedge70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crown70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wedge100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crown100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wedge40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sym_flt_del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_CF_F7XFLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F7XFLTSYM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L2_CF_F7XFLTASYM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os_gap1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asym_flt_del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sym_flt_del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MFG_POND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PART</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1247,259 +1500,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>looper_angle1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>looper_angle6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diff_rolling_force1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_rolling_force1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ct_gap1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thick_clg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crown25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crown40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wedge40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_center_ofs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fm_center_ofs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2DW\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2dw_calc_length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLT_POND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLT\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flt_calc_length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mfg_calc_length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLT\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MFG\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flt_calc_length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2dt_calc_length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2DT\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2dw_calc_length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ct_calc_length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2DW\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fet_calc_length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FET\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FDT\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fdt_calc_length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLG_POND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLG\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clg_calc_length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1\\Calc_Length</t>
-  </si>
-  <si>
-    <t>F1\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2\\Calc_Length</t>
-  </si>
-  <si>
-    <t>F3\\Calc_Length</t>
-  </si>
-  <si>
-    <t>F4\\Calc_Length</t>
-  </si>
-  <si>
-    <t>F5\\Calc_Length</t>
-  </si>
-  <si>
-    <t>F6\\Calc_Length</t>
-  </si>
-  <si>
-    <t>F7\\Calc_Length</t>
-  </si>
-  <si>
-    <t>calc_length1</t>
-  </si>
-  <si>
-    <t>calc_length1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calc_length2</t>
-  </si>
-  <si>
-    <t>calc_length3</t>
-  </si>
-  <si>
-    <t>calc_length4</t>
-  </si>
-  <si>
-    <t>calc_length5</t>
-  </si>
-  <si>
-    <t>calc_length6</t>
-  </si>
-  <si>
-    <t>calc_length7</t>
-  </si>
-  <si>
-    <t>pos_shift1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos_shift2</t>
-  </si>
-  <si>
-    <t>pos_shift3</t>
-  </si>
-  <si>
-    <t>pos_shift4</t>
-  </si>
-  <si>
-    <t>pos_shift5</t>
-  </si>
-  <si>
-    <t>pos_shift6</t>
-  </si>
-  <si>
-    <t>pos_shift7</t>
-  </si>
-  <si>
-    <t>F7_POND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FM_POND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F7\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FM\\Calc_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calc_length7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fm_calc_length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L2_FA_FDT2TEMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_FDT1TEMP</t>
+    <t>os_bend_force7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_FA_FDT1TEMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2014,48 +2019,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="3"/>
-    <col min="2" max="2" width="22.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="3"/>
+    <col min="1" max="1" width="8.75" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1580</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1580</v>
       </c>
@@ -2063,13 +2068,13 @@
         <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1580</v>
       </c>
@@ -2077,13 +2082,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2250</v>
       </c>
@@ -2091,741 +2096,741 @@
         <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2250</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>2250</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1580</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>2250</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>1580</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>1580</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>2250</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>2250</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>1580</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>1580</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>2250</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>2250</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>1580</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>1580</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>2250</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>2250</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>1580</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>1580</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>2250</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>2250</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>1580</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C26" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="19">
+        <v>2250</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="11">
+        <v>1580</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>2250</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="D28" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="11">
+        <v>1580</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="11">
+        <v>1580</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="11">
+        <v>1580</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="11">
+        <v>1580</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="11">
+        <v>1580</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="11">
+        <v>1580</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="20">
+        <v>2250</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="D35" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="20">
+        <v>2250</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="20">
+        <v>2250</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="20">
+        <v>2250</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C38" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B29" s="11" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="20">
+        <v>2250</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C39" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B30" s="11" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="20">
+        <v>2250</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C40" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B32" s="11" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="20">
+        <v>2250</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>1580</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>2250</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
-        <v>2250</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
-        <v>2250</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
-        <v>2250</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
-        <v>2250</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
-        <v>2250</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
-        <v>2250</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>1580</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>2250</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>1580</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="C44" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>1580</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>1580</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>1580</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>1580</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>1580</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>1580</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>2250</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>2250</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>2250</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>2250</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>2250</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>2250</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>2250</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
         <v>1580</v>
       </c>
@@ -2833,13 +2838,13 @@
         <v>232</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>1580</v>
       </c>
@@ -2847,13 +2852,13 @@
         <v>21</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="7">
         <v>1580</v>
       </c>
@@ -2861,13 +2866,13 @@
         <v>22</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="7">
         <v>1580</v>
       </c>
@@ -2875,13 +2880,13 @@
         <v>23</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
         <v>1580</v>
       </c>
@@ -2889,13 +2894,13 @@
         <v>24</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="7">
         <v>2250</v>
       </c>
@@ -2903,13 +2908,13 @@
         <v>20</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="7">
         <v>2250</v>
       </c>
@@ -2917,13 +2922,13 @@
         <v>21</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="7">
         <v>2250</v>
       </c>
@@ -2931,125 +2936,125 @@
         <v>22</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="7">
         <v>2250</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="7">
         <v>2250</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="17">
         <v>1580</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="17">
         <v>2250</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="18">
         <v>1580</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D70" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="18">
+        <v>1580</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" s="18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="18">
-        <v>1580</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="18">
         <v>2250</v>
       </c>
       <c r="B72" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="8">
         <v>1580</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="8">
         <v>1580</v>
       </c>
@@ -3057,13 +3062,13 @@
         <v>36</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="8">
         <v>1580</v>
       </c>
@@ -3071,13 +3076,13 @@
         <v>37</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="8">
         <v>1580</v>
       </c>
@@ -3085,13 +3090,13 @@
         <v>38</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="8">
         <v>1580</v>
       </c>
@@ -3099,13 +3104,13 @@
         <v>39</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="8">
         <v>1580</v>
       </c>
@@ -3113,13 +3118,13 @@
         <v>40</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="8">
         <v>2250</v>
       </c>
@@ -3127,13 +3132,13 @@
         <v>35</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="8">
         <v>2250</v>
       </c>
@@ -3141,13 +3146,13 @@
         <v>36</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="8">
         <v>2250</v>
       </c>
@@ -3155,13 +3160,13 @@
         <v>37</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="8">
         <v>2250</v>
       </c>
@@ -3169,13 +3174,13 @@
         <v>53</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="8">
         <v>2250</v>
       </c>
@@ -3183,41 +3188,41 @@
         <v>39</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="8">
         <v>2250</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="6">
         <v>1580</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="6">
         <v>2250</v>
       </c>
@@ -3225,55 +3230,55 @@
         <v>54</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="6">
         <v>1580</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="6">
+        <v>2250</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>1580</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
-        <v>2250</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>1580</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>2250</v>
       </c>
@@ -3281,55 +3286,55 @@
         <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>1580</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>2250</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="4">
+        <v>1580</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>2250</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
-        <v>1580</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>2250</v>
       </c>
@@ -3337,111 +3342,111 @@
         <v>79</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>1580</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="9">
+        <v>1580</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
-        <v>2250</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
-        <v>1580</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="9">
         <v>2250</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="9">
         <v>1580</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C99" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="9">
+        <v>2250</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="6">
+        <v>1580</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
-        <v>2250</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
-        <v>1580</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="D101" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="6">
         <v>2250</v>
       </c>
@@ -3449,55 +3454,55 @@
         <v>80</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="6">
         <v>1580</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="6">
         <v>2250</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="9">
         <v>1580</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="9">
         <v>2250</v>
       </c>
@@ -3505,13 +3510,13 @@
         <v>81</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="10">
         <v>1580</v>
       </c>
@@ -3519,13 +3524,13 @@
         <v>86</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="10">
         <v>1580</v>
       </c>
@@ -3533,13 +3538,13 @@
         <v>87</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="10">
         <v>1580</v>
       </c>
@@ -3547,13 +3552,13 @@
         <v>88</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="10">
         <v>1580</v>
       </c>
@@ -3561,13 +3566,13 @@
         <v>89</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="10">
         <v>1580</v>
       </c>
@@ -3575,13 +3580,13 @@
         <v>90</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="10">
         <v>1580</v>
       </c>
@@ -3589,13 +3594,13 @@
         <v>91</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="10">
         <v>1580</v>
       </c>
@@ -3603,13 +3608,13 @@
         <v>92</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="10">
         <v>2250</v>
       </c>
@@ -3617,13 +3622,13 @@
         <v>86</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="10">
         <v>2250</v>
       </c>
@@ -3631,13 +3636,13 @@
         <v>87</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="10">
         <v>2250</v>
       </c>
@@ -3645,13 +3650,13 @@
         <v>88</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="10">
         <v>2250</v>
       </c>
@@ -3659,13 +3664,13 @@
         <v>89</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="10">
         <v>2250</v>
       </c>
@@ -3673,13 +3678,13 @@
         <v>90</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="10">
         <v>2250</v>
       </c>
@@ -3687,13 +3692,13 @@
         <v>91</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="10">
         <v>2250</v>
       </c>
@@ -3701,27 +3706,27 @@
         <v>92</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="11">
         <v>1580</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="11">
         <v>1580</v>
       </c>
@@ -3729,13 +3734,13 @@
         <v>93</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="11">
         <v>1580</v>
       </c>
@@ -3743,13 +3748,13 @@
         <v>94</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="11">
         <v>1580</v>
       </c>
@@ -3757,13 +3762,13 @@
         <v>95</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="11">
         <v>1580</v>
       </c>
@@ -3771,13 +3776,13 @@
         <v>96</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="11">
         <v>1580</v>
       </c>
@@ -3785,13 +3790,13 @@
         <v>97</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="11">
         <v>1580</v>
       </c>
@@ -3799,13 +3804,13 @@
         <v>98</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="11">
         <v>2250</v>
       </c>
@@ -3813,13 +3818,13 @@
         <v>134</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="11">
         <v>2250</v>
       </c>
@@ -3827,13 +3832,13 @@
         <v>93</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="11">
         <v>2250</v>
       </c>
@@ -3841,13 +3846,13 @@
         <v>94</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="11">
         <v>2250</v>
       </c>
@@ -3855,13 +3860,13 @@
         <v>95</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="11">
         <v>2250</v>
       </c>
@@ -3869,13 +3874,13 @@
         <v>96</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="11">
         <v>2250</v>
       </c>
@@ -3883,13 +3888,13 @@
         <v>97</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D133" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="11">
         <v>2250</v>
       </c>
@@ -3897,13 +3902,13 @@
         <v>98</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="12">
         <v>1580</v>
       </c>
@@ -3911,13 +3916,13 @@
         <v>99</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="12">
         <v>1580</v>
       </c>
@@ -3925,13 +3930,13 @@
         <v>100</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="12">
         <v>1580</v>
       </c>
@@ -3939,13 +3944,13 @@
         <v>101</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="12">
         <v>1580</v>
       </c>
@@ -3953,13 +3958,13 @@
         <v>102</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D138" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="12">
         <v>1580</v>
       </c>
@@ -3967,13 +3972,13 @@
         <v>103</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="12">
         <v>1580</v>
       </c>
@@ -3981,13 +3986,13 @@
         <v>104</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="12">
         <v>1580</v>
       </c>
@@ -3995,13 +4000,13 @@
         <v>105</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="12">
         <v>2250</v>
       </c>
@@ -4009,13 +4014,13 @@
         <v>99</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="12">
         <v>2250</v>
       </c>
@@ -4023,13 +4028,13 @@
         <v>100</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="12">
         <v>2250</v>
       </c>
@@ -4037,13 +4042,13 @@
         <v>101</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="12">
         <v>2250</v>
       </c>
@@ -4051,13 +4056,13 @@
         <v>102</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="12">
         <v>2250</v>
       </c>
@@ -4065,13 +4070,13 @@
         <v>103</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="12">
         <v>2250</v>
       </c>
@@ -4079,13 +4084,13 @@
         <v>104</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="12">
         <v>2250</v>
       </c>
@@ -4093,27 +4098,27 @@
         <v>105</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>1580</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>1580</v>
       </c>
@@ -4121,13 +4126,13 @@
         <v>121</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>1580</v>
       </c>
@@ -4135,13 +4140,13 @@
         <v>122</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>1580</v>
       </c>
@@ -4149,13 +4154,13 @@
         <v>123</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>1580</v>
       </c>
@@ -4163,13 +4168,13 @@
         <v>124</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>1580</v>
       </c>
@@ -4177,13 +4182,13 @@
         <v>125</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>1580</v>
       </c>
@@ -4191,13 +4196,13 @@
         <v>126</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>2250</v>
       </c>
@@ -4205,13 +4210,13 @@
         <v>120</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>2250</v>
       </c>
@@ -4219,13 +4224,13 @@
         <v>121</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>2250</v>
       </c>
@@ -4233,13 +4238,13 @@
         <v>122</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>2250</v>
       </c>
@@ -4247,13 +4252,13 @@
         <v>123</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>2250</v>
       </c>
@@ -4261,13 +4266,13 @@
         <v>124</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>2250</v>
       </c>
@@ -4275,13 +4280,13 @@
         <v>125</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>2250</v>
       </c>
@@ -4289,27 +4294,27 @@
         <v>126</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="4">
         <v>1580</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="4">
         <v>1580</v>
       </c>
@@ -4317,13 +4322,13 @@
         <v>160</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="4">
         <v>1580</v>
       </c>
@@ -4331,13 +4336,13 @@
         <v>161</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="4">
         <v>1580</v>
       </c>
@@ -4345,13 +4350,13 @@
         <v>162</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="4">
         <v>1580</v>
       </c>
@@ -4359,13 +4364,13 @@
         <v>163</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="4">
         <v>1580</v>
       </c>
@@ -4373,13 +4378,13 @@
         <v>164</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="4">
         <v>1580</v>
       </c>
@@ -4387,13 +4392,13 @@
         <v>165</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="4">
         <v>2250</v>
       </c>
@@ -4401,13 +4406,13 @@
         <v>159</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="4">
         <v>2250</v>
       </c>
@@ -4415,13 +4420,13 @@
         <v>160</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="4">
         <v>2250</v>
       </c>
@@ -4429,13 +4434,13 @@
         <v>161</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="4">
         <v>2250</v>
       </c>
@@ -4443,13 +4448,13 @@
         <v>162</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="4">
         <v>2250</v>
       </c>
@@ -4457,13 +4462,13 @@
         <v>163</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="4">
         <v>2250</v>
       </c>
@@ -4471,13 +4476,13 @@
         <v>164</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="4">
         <v>2250</v>
       </c>
@@ -4485,13 +4490,13 @@
         <v>165</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="12">
         <v>1580</v>
       </c>
@@ -4499,11 +4504,11 @@
         <v>194</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D177" s="12"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="12">
         <v>1580</v>
       </c>
@@ -4511,11 +4516,11 @@
         <v>195</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D178" s="12"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="12">
         <v>1580</v>
       </c>
@@ -4523,11 +4528,11 @@
         <v>196</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D179" s="12"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="12">
         <v>1580</v>
       </c>
@@ -4535,11 +4540,11 @@
         <v>197</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D180" s="12"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="12">
         <v>1580</v>
       </c>
@@ -4547,11 +4552,11 @@
         <v>198</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D181" s="12"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="12">
         <v>1580</v>
       </c>
@@ -4559,11 +4564,11 @@
         <v>199</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D182" s="12"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="12">
         <v>1580</v>
       </c>
@@ -4571,11 +4576,11 @@
         <v>200</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D183" s="12"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="12">
         <v>1580</v>
       </c>
@@ -4583,11 +4588,11 @@
         <v>201</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D184" s="12"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="12">
         <v>1580</v>
       </c>
@@ -4595,11 +4600,11 @@
         <v>202</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D185" s="12"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="12">
         <v>1580</v>
       </c>
@@ -4607,11 +4612,11 @@
         <v>203</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D186" s="12"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="12">
         <v>1580</v>
       </c>
@@ -4619,11 +4624,11 @@
         <v>204</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D187" s="12"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="12">
         <v>1580</v>
       </c>
@@ -4631,11 +4636,11 @@
         <v>205</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D188" s="12"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="12">
         <v>1580</v>
       </c>
@@ -4643,11 +4648,11 @@
         <v>206</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D189" s="12"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="12">
         <v>1580</v>
       </c>
@@ -4655,11 +4660,11 @@
         <v>207</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D190" s="12"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="12">
         <v>2250</v>
       </c>
@@ -4667,11 +4672,11 @@
         <v>194</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D191" s="12"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="12">
         <v>2250</v>
       </c>
@@ -4679,11 +4684,11 @@
         <v>195</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D192" s="12"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="12">
         <v>2250</v>
       </c>
@@ -4691,11 +4696,11 @@
         <v>196</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D193" s="12"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="12">
         <v>2250</v>
       </c>
@@ -4703,11 +4708,11 @@
         <v>197</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D194" s="12"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="12">
         <v>2250</v>
       </c>
@@ -4715,11 +4720,11 @@
         <v>198</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D195" s="12"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="12">
         <v>2250</v>
       </c>
@@ -4727,11 +4732,11 @@
         <v>199</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D196" s="12"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="12">
         <v>2250</v>
       </c>
@@ -4739,11 +4744,11 @@
         <v>200</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D197" s="12"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="12">
         <v>2250</v>
       </c>
@@ -4751,11 +4756,11 @@
         <v>201</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D198" s="12"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="12">
         <v>2250</v>
       </c>
@@ -4763,11 +4768,11 @@
         <v>202</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D199" s="12"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="12">
         <v>2250</v>
       </c>
@@ -4775,11 +4780,11 @@
         <v>203</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D200" s="12"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="12">
         <v>2250</v>
       </c>
@@ -4787,11 +4792,11 @@
         <v>204</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D201" s="12"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="12">
         <v>2250</v>
       </c>
@@ -4799,11 +4804,11 @@
         <v>205</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D202" s="12"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="12">
         <v>2250</v>
       </c>
@@ -4811,11 +4816,11 @@
         <v>206</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D203" s="12"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="12">
         <v>2250</v>
       </c>
@@ -4823,25 +4828,25 @@
         <v>207</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D204" s="12"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
         <v>1580</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
         <v>1580</v>
       </c>
@@ -4849,13 +4854,13 @@
         <v>209</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
         <v>1580</v>
       </c>
@@ -4863,13 +4868,13 @@
         <v>210</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
         <v>1580</v>
       </c>
@@ -4877,13 +4882,13 @@
         <v>211</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
         <v>1580</v>
       </c>
@@ -4891,13 +4896,13 @@
         <v>212</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
         <v>1580</v>
       </c>
@@ -4905,13 +4910,13 @@
         <v>213</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
         <v>1580</v>
       </c>
@@ -4919,13 +4924,13 @@
         <v>214</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
         <v>2250</v>
       </c>
@@ -4933,13 +4938,13 @@
         <v>208</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
         <v>2250</v>
       </c>
@@ -4947,13 +4952,13 @@
         <v>209</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
         <v>2250</v>
       </c>
@@ -4961,13 +4966,13 @@
         <v>210</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
         <v>2250</v>
       </c>
@@ -4975,13 +4980,13 @@
         <v>211</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
         <v>2250</v>
       </c>
@@ -4989,13 +4994,13 @@
         <v>212</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
         <v>2250</v>
       </c>
@@ -5003,13 +5008,13 @@
         <v>213</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
         <v>2250</v>
       </c>
@@ -5017,27 +5022,27 @@
         <v>214</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="4">
         <v>1580</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="4">
         <v>2250</v>
       </c>
@@ -5045,27 +5050,27 @@
         <v>229</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="11">
         <v>1580</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>334</v>
+        <v>402</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="11">
         <v>1580</v>
       </c>
@@ -5073,13 +5078,13 @@
         <v>235</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D222" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="11">
         <v>1580</v>
       </c>
@@ -5087,13 +5092,13 @@
         <v>237</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D223" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="11">
         <v>1580</v>
       </c>
@@ -5101,13 +5106,13 @@
         <v>239</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D224" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="11">
         <v>1580</v>
       </c>
@@ -5115,13 +5120,13 @@
         <v>241</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="11">
         <v>1580</v>
       </c>
@@ -5129,13 +5134,13 @@
         <v>243</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="11">
         <v>1580</v>
       </c>
@@ -5143,13 +5148,13 @@
         <v>245</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="14">
         <v>2250</v>
       </c>
@@ -5157,13 +5162,13 @@
         <v>247</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D228" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="14">
         <v>2250</v>
       </c>
@@ -5171,13 +5176,13 @@
         <v>235</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D229" s="14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="14">
         <v>2250</v>
       </c>
@@ -5185,13 +5190,13 @@
         <v>237</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D230" s="14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="14">
         <v>2250</v>
       </c>
@@ -5199,13 +5204,13 @@
         <v>239</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D231" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="14">
         <v>2250</v>
       </c>
@@ -5213,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D232" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="14">
         <v>2250</v>
       </c>
@@ -5227,27 +5232,27 @@
         <v>243</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D233" s="14" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="14">
         <v>2250</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>245</v>
+        <v>403</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D234" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="13">
         <v>1580</v>
       </c>
@@ -5255,13 +5260,13 @@
         <v>233</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D235" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="13">
         <v>1580</v>
       </c>
@@ -5269,13 +5274,13 @@
         <v>255</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D236" s="15" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="13">
         <v>1580</v>
       </c>
@@ -5283,13 +5288,13 @@
         <v>257</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D237" s="15" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="13">
         <v>1580</v>
       </c>
@@ -5297,13 +5302,13 @@
         <v>259</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D238" s="15" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="13">
         <v>1580</v>
       </c>
@@ -5311,13 +5316,13 @@
         <v>261</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D239" s="15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="13">
         <v>1580</v>
       </c>
@@ -5325,13 +5330,13 @@
         <v>263</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D240" s="15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="13">
         <v>1580</v>
       </c>
@@ -5339,13 +5344,13 @@
         <v>265</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D241" s="15" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="15">
         <v>2250</v>
       </c>
@@ -5353,13 +5358,13 @@
         <v>267</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D242" s="15" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="15">
         <v>2250</v>
       </c>
@@ -5367,13 +5372,13 @@
         <v>255</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D243" s="15" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="15">
         <v>2250</v>
       </c>
@@ -5381,13 +5386,13 @@
         <v>257</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D244" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="15">
         <v>2250</v>
       </c>
@@ -5395,13 +5400,13 @@
         <v>259</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D245" s="15" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="15">
         <v>2250</v>
       </c>
@@ -5409,13 +5414,13 @@
         <v>261</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D246" s="15" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="15">
         <v>2250</v>
       </c>
@@ -5423,13 +5428,13 @@
         <v>263</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D247" s="15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="15">
         <v>2250</v>
       </c>
@@ -5437,13 +5442,13 @@
         <v>265</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D248" s="15" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="4">
         <v>1580</v>
       </c>
@@ -5451,13 +5456,13 @@
         <v>294</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="4">
         <v>1580</v>
       </c>
@@ -5465,13 +5470,13 @@
         <v>279</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="4">
         <v>1580</v>
       </c>
@@ -5479,13 +5484,13 @@
         <v>280</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="4">
         <v>1580</v>
       </c>
@@ -5493,13 +5498,13 @@
         <v>281</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="4">
         <v>1580</v>
       </c>
@@ -5507,13 +5512,13 @@
         <v>282</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="4">
         <v>1580</v>
       </c>
@@ -5521,13 +5526,13 @@
         <v>276</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="16">
         <v>2250</v>
       </c>
@@ -5535,13 +5540,13 @@
         <v>278</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="16">
         <v>2250</v>
       </c>
@@ -5549,13 +5554,13 @@
         <v>279</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="16">
         <v>2250</v>
       </c>
@@ -5563,13 +5568,13 @@
         <v>280</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="16">
         <v>2250</v>
       </c>
@@ -5577,13 +5582,13 @@
         <v>281</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="16">
         <v>2250</v>
       </c>
@@ -5591,13 +5596,13 @@
         <v>282</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="16">
         <v>2250</v>
       </c>
@@ -5605,7 +5610,7 @@
         <v>276</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>277</v>
